--- a/phase1/result/ans.xlsx
+++ b/phase1/result/ans.xlsx
@@ -823,7 +823,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1302,7 +1302,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>115533</v>
+        <v>115535</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>3373</v>
@@ -1329,7 +1329,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>143209</v>
+        <v>143217</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>3857</v>
@@ -1356,7 +1356,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>173935</v>
+        <v>173937</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>4195</v>
@@ -1383,7 +1383,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>208665</v>
+        <v>208667</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>4679</v>
